--- a/converter/data/xlsx/29.4. A SMJENA.XLSX
+++ b/converter/data/xlsx/29.4. A SMJENA.XLSX
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="124">
   <si>
     <t>PONEDJELJAK</t>
   </si>
@@ -2779,7 +2779,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="740">
+  <cellXfs count="741">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -4367,9 +4367,6 @@
     <xf numFmtId="0" fontId="9" fillId="31" borderId="69" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4704,6 +4701,69 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="14" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="100" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="106" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="107" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="108" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="100" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="100" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="106" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="109" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="101" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4725,74 +4785,17 @@
     <xf numFmtId="0" fontId="12" fillId="31" borderId="103" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="90" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="100" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="106" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="107" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="108" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="100" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="100" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="106" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="109" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6013,8 +6016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N73" sqref="N73"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6052,95 +6055,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="27" thickBot="1">
-      <c r="A1" s="719" t="s">
+      <c r="A1" s="711" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="719"/>
-      <c r="C1" s="719"/>
-      <c r="D1" s="719"/>
-      <c r="E1" s="719"/>
-      <c r="F1" s="719"/>
-      <c r="G1" s="719"/>
-      <c r="H1" s="719"/>
-      <c r="I1" s="719"/>
-      <c r="J1" s="719"/>
-      <c r="K1" s="719"/>
-      <c r="L1" s="719"/>
-      <c r="M1" s="719"/>
-      <c r="N1" s="719"/>
-      <c r="O1" s="719"/>
-      <c r="P1" s="719"/>
-      <c r="Q1" s="719"/>
-      <c r="R1" s="719"/>
-      <c r="S1" s="719"/>
-      <c r="T1" s="719"/>
-      <c r="U1" s="719"/>
-      <c r="V1" s="719"/>
-      <c r="W1" s="719"/>
-      <c r="X1" s="719"/>
-      <c r="Y1" s="719"/>
-      <c r="Z1" s="719"/>
-      <c r="AA1" s="719"/>
-      <c r="AB1" s="719"/>
-      <c r="AC1" s="719"/>
-      <c r="AD1" s="719"/>
-      <c r="AE1" s="719"/>
-      <c r="AF1" s="719"/>
-      <c r="AG1" s="719"/>
-      <c r="AH1" s="719"/>
-      <c r="AI1" s="719"/>
-      <c r="AJ1" s="719"/>
+      <c r="B1" s="711"/>
+      <c r="C1" s="711"/>
+      <c r="D1" s="711"/>
+      <c r="E1" s="711"/>
+      <c r="F1" s="711"/>
+      <c r="G1" s="711"/>
+      <c r="H1" s="711"/>
+      <c r="I1" s="711"/>
+      <c r="J1" s="711"/>
+      <c r="K1" s="711"/>
+      <c r="L1" s="711"/>
+      <c r="M1" s="711"/>
+      <c r="N1" s="711"/>
+      <c r="O1" s="711"/>
+      <c r="P1" s="711"/>
+      <c r="Q1" s="711"/>
+      <c r="R1" s="711"/>
+      <c r="S1" s="711"/>
+      <c r="T1" s="711"/>
+      <c r="U1" s="711"/>
+      <c r="V1" s="711"/>
+      <c r="W1" s="711"/>
+      <c r="X1" s="711"/>
+      <c r="Y1" s="711"/>
+      <c r="Z1" s="711"/>
+      <c r="AA1" s="711"/>
+      <c r="AB1" s="711"/>
+      <c r="AC1" s="711"/>
+      <c r="AD1" s="711"/>
+      <c r="AE1" s="711"/>
+      <c r="AF1" s="711"/>
+      <c r="AG1" s="711"/>
+      <c r="AH1" s="711"/>
+      <c r="AI1" s="711"/>
+      <c r="AJ1" s="711"/>
       <c r="AK1" s="1"/>
     </row>
     <row r="2" spans="1:37" ht="18">
       <c r="A2" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="720" t="s">
+      <c r="B2" s="712" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="721"/>
-      <c r="D2" s="721"/>
-      <c r="E2" s="721"/>
-      <c r="F2" s="721"/>
-      <c r="G2" s="721"/>
-      <c r="H2" s="722"/>
-      <c r="I2" s="723" t="s">
+      <c r="C2" s="713"/>
+      <c r="D2" s="713"/>
+      <c r="E2" s="713"/>
+      <c r="F2" s="713"/>
+      <c r="G2" s="713"/>
+      <c r="H2" s="714"/>
+      <c r="I2" s="715" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="721"/>
-      <c r="K2" s="721"/>
-      <c r="L2" s="721"/>
-      <c r="M2" s="721"/>
-      <c r="N2" s="721"/>
-      <c r="O2" s="722"/>
-      <c r="P2" s="724" t="s">
+      <c r="J2" s="713"/>
+      <c r="K2" s="713"/>
+      <c r="L2" s="713"/>
+      <c r="M2" s="713"/>
+      <c r="N2" s="713"/>
+      <c r="O2" s="714"/>
+      <c r="P2" s="716" t="s">
         <v>119</v>
       </c>
-      <c r="Q2" s="721"/>
-      <c r="R2" s="721"/>
-      <c r="S2" s="721"/>
-      <c r="T2" s="721"/>
-      <c r="U2" s="721"/>
-      <c r="V2" s="722"/>
-      <c r="W2" s="723" t="s">
+      <c r="Q2" s="713"/>
+      <c r="R2" s="713"/>
+      <c r="S2" s="713"/>
+      <c r="T2" s="713"/>
+      <c r="U2" s="713"/>
+      <c r="V2" s="714"/>
+      <c r="W2" s="715" t="s">
         <v>2</v>
       </c>
-      <c r="X2" s="721"/>
-      <c r="Y2" s="721"/>
-      <c r="Z2" s="721"/>
-      <c r="AA2" s="721"/>
-      <c r="AB2" s="721"/>
-      <c r="AC2" s="722"/>
-      <c r="AD2" s="725" t="s">
+      <c r="X2" s="713"/>
+      <c r="Y2" s="713"/>
+      <c r="Z2" s="713"/>
+      <c r="AA2" s="713"/>
+      <c r="AB2" s="713"/>
+      <c r="AC2" s="714"/>
+      <c r="AD2" s="717" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="726"/>
-      <c r="AF2" s="726"/>
-      <c r="AG2" s="726"/>
-      <c r="AH2" s="726"/>
-      <c r="AI2" s="726"/>
-      <c r="AJ2" s="727"/>
+      <c r="AE2" s="718"/>
+      <c r="AF2" s="718"/>
+      <c r="AG2" s="718"/>
+      <c r="AH2" s="718"/>
+      <c r="AI2" s="718"/>
+      <c r="AJ2" s="719"/>
       <c r="AK2" s="1"/>
     </row>
     <row r="3" spans="1:37" ht="16.5" thickBot="1">
@@ -6273,10 +6276,10 @@
       <c r="F4" s="198"/>
       <c r="G4" s="198"/>
       <c r="H4" s="199"/>
-      <c r="I4" s="685"/>
-      <c r="J4" s="685"/>
+      <c r="I4" s="684"/>
+      <c r="J4" s="684"/>
       <c r="K4" s="200"/>
-      <c r="L4" s="686"/>
+      <c r="L4" s="685"/>
       <c r="M4" s="200" t="s">
         <v>89</v>
       </c>
@@ -6627,7 +6630,7 @@
       <c r="L10" s="185"/>
       <c r="M10" s="175"/>
       <c r="N10" s="185"/>
-      <c r="O10" s="687"/>
+      <c r="O10" s="686"/>
       <c r="P10" s="577"/>
       <c r="Q10" s="577"/>
       <c r="R10" s="577"/>
@@ -6883,14 +6886,16 @@
       <c r="N14" s="547" t="s">
         <v>73</v>
       </c>
-      <c r="O14" s="238"/>
-      <c r="P14" s="585"/>
-      <c r="Q14" s="586"/>
-      <c r="R14" s="587"/>
-      <c r="S14" s="587"/>
-      <c r="T14" s="588"/>
-      <c r="U14" s="587"/>
-      <c r="V14" s="589"/>
+      <c r="O14" s="547" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="739"/>
+      <c r="Q14" s="585"/>
+      <c r="R14" s="586"/>
+      <c r="S14" s="586"/>
+      <c r="T14" s="587"/>
+      <c r="U14" s="586"/>
+      <c r="V14" s="588"/>
       <c r="W14" s="531" t="s">
         <v>73</v>
       </c>
@@ -6904,7 +6909,7 @@
         <v>106</v>
       </c>
       <c r="AA14" s="243"/>
-      <c r="AB14" s="704" t="s">
+      <c r="AB14" s="703" t="s">
         <v>70</v>
       </c>
       <c r="AC14" s="463" t="s">
@@ -7008,18 +7013,18 @@
       <c r="O16" s="192"/>
       <c r="P16" s="583"/>
       <c r="Q16" s="577"/>
-      <c r="R16" s="591"/>
+      <c r="R16" s="590"/>
       <c r="S16" s="577"/>
-      <c r="T16" s="592"/>
-      <c r="U16" s="593"/>
-      <c r="V16" s="594"/>
+      <c r="T16" s="591"/>
+      <c r="U16" s="592"/>
+      <c r="V16" s="593"/>
       <c r="W16" s="314"/>
       <c r="X16" s="175"/>
       <c r="Y16" s="187"/>
       <c r="Z16" s="175"/>
       <c r="AA16" s="175"/>
-      <c r="AB16" s="728"/>
-      <c r="AC16" s="729"/>
+      <c r="AB16" s="720"/>
+      <c r="AC16" s="721"/>
       <c r="AD16" s="194"/>
       <c r="AE16" s="175" t="s">
         <v>68</v>
@@ -7055,7 +7060,7 @@
       <c r="I17" s="194" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="689"/>
+      <c r="J17" s="688"/>
       <c r="K17" s="507" t="s">
         <v>89</v>
       </c>
@@ -7073,7 +7078,7 @@
       <c r="S17" s="577"/>
       <c r="T17" s="569"/>
       <c r="U17" s="577"/>
-      <c r="V17" s="595"/>
+      <c r="V17" s="594"/>
       <c r="W17" s="191"/>
       <c r="X17" s="175"/>
       <c r="Y17" s="175"/>
@@ -7175,14 +7180,14 @@
       <c r="G19" s="205"/>
       <c r="H19" s="226"/>
       <c r="I19" s="194"/>
-      <c r="J19" s="689"/>
+      <c r="J19" s="688"/>
       <c r="K19" s="175" t="s">
         <v>89</v>
       </c>
       <c r="L19" s="175" t="s">
         <v>89</v>
       </c>
-      <c r="M19" s="689"/>
+      <c r="M19" s="688"/>
       <c r="N19" s="175"/>
       <c r="O19" s="189"/>
       <c r="P19" s="568"/>
@@ -7191,7 +7196,7 @@
       <c r="S19" s="577"/>
       <c r="T19" s="577"/>
       <c r="U19" s="569"/>
-      <c r="V19" s="595"/>
+      <c r="V19" s="594"/>
       <c r="W19" s="191"/>
       <c r="X19" s="185"/>
       <c r="Y19" s="175"/>
@@ -7415,7 +7420,7 @@
       <c r="M23" s="175"/>
       <c r="N23" s="175"/>
       <c r="O23" s="249"/>
-      <c r="P23" s="596"/>
+      <c r="P23" s="595"/>
       <c r="Q23" s="577"/>
       <c r="R23" s="577"/>
       <c r="S23" s="577"/>
@@ -7496,13 +7501,13 @@
       <c r="M24" s="215"/>
       <c r="N24" s="215"/>
       <c r="O24" s="214"/>
-      <c r="P24" s="597"/>
+      <c r="P24" s="596"/>
       <c r="Q24" s="575"/>
-      <c r="R24" s="588"/>
-      <c r="S24" s="588"/>
-      <c r="T24" s="587"/>
+      <c r="R24" s="587"/>
+      <c r="S24" s="587"/>
+      <c r="T24" s="586"/>
       <c r="U24" s="575"/>
-      <c r="V24" s="598"/>
+      <c r="V24" s="597"/>
       <c r="W24" s="384"/>
       <c r="X24" s="243"/>
       <c r="Y24" s="242"/>
@@ -7555,7 +7560,7 @@
       <c r="S25" s="572"/>
       <c r="T25" s="572"/>
       <c r="U25" s="572"/>
-      <c r="V25" s="599"/>
+      <c r="V25" s="598"/>
       <c r="W25" s="304"/>
       <c r="X25" s="208"/>
       <c r="Y25" s="208"/>
@@ -7602,7 +7607,7 @@
       <c r="S26" s="572"/>
       <c r="T26" s="572"/>
       <c r="U26" s="569"/>
-      <c r="V26" s="599"/>
+      <c r="V26" s="598"/>
       <c r="W26" s="304"/>
       <c r="X26" s="208"/>
       <c r="Y26" s="208"/>
@@ -7650,10 +7655,10 @@
       <c r="J27" s="208" t="s">
         <v>67</v>
       </c>
-      <c r="K27" s="688"/>
-      <c r="L27" s="688"/>
-      <c r="M27" s="688"/>
-      <c r="N27" s="688"/>
+      <c r="K27" s="687"/>
+      <c r="L27" s="687"/>
+      <c r="M27" s="687"/>
+      <c r="N27" s="687"/>
       <c r="O27" s="233"/>
       <c r="P27" s="571"/>
       <c r="Q27" s="572"/>
@@ -7661,7 +7666,7 @@
       <c r="S27" s="572"/>
       <c r="T27" s="572"/>
       <c r="U27" s="572"/>
-      <c r="V27" s="599"/>
+      <c r="V27" s="598"/>
       <c r="W27" s="304" t="s">
         <v>90</v>
       </c>
@@ -7724,13 +7729,13 @@
       <c r="M28" s="208"/>
       <c r="N28" s="208"/>
       <c r="O28" s="233"/>
-      <c r="P28" s="600"/>
-      <c r="Q28" s="601"/>
+      <c r="P28" s="599"/>
+      <c r="Q28" s="600"/>
       <c r="R28" s="572"/>
       <c r="S28" s="572"/>
-      <c r="T28" s="602"/>
+      <c r="T28" s="601"/>
       <c r="U28" s="572"/>
-      <c r="V28" s="603"/>
+      <c r="V28" s="602"/>
       <c r="W28" s="304" t="s">
         <v>82</v>
       </c>
@@ -7795,13 +7800,13 @@
       <c r="M29" s="24"/>
       <c r="N29" s="24"/>
       <c r="O29" s="35"/>
-      <c r="P29" s="597"/>
+      <c r="P29" s="596"/>
       <c r="Q29" s="575"/>
       <c r="R29" s="575"/>
       <c r="S29" s="575"/>
       <c r="T29" s="575"/>
-      <c r="U29" s="586"/>
-      <c r="V29" s="604"/>
+      <c r="U29" s="585"/>
+      <c r="V29" s="603"/>
       <c r="W29" s="306"/>
       <c r="X29" s="215"/>
       <c r="Y29" s="215"/>
@@ -7854,12 +7859,12 @@
       <c r="M30" s="257"/>
       <c r="N30" s="338"/>
       <c r="O30" s="339"/>
-      <c r="P30" s="605"/>
-      <c r="Q30" s="605"/>
-      <c r="R30" s="606"/>
-      <c r="S30" s="606"/>
-      <c r="T30" s="607"/>
-      <c r="U30" s="608"/>
+      <c r="P30" s="604"/>
+      <c r="Q30" s="604"/>
+      <c r="R30" s="605"/>
+      <c r="S30" s="605"/>
+      <c r="T30" s="606"/>
+      <c r="U30" s="607"/>
       <c r="V30" s="579"/>
       <c r="W30" s="307"/>
       <c r="X30" s="219"/>
@@ -7903,11 +7908,11 @@
       <c r="M31" s="472"/>
       <c r="N31" s="473"/>
       <c r="O31" s="404"/>
-      <c r="P31" s="609"/>
-      <c r="Q31" s="609"/>
-      <c r="R31" s="610"/>
-      <c r="S31" s="610"/>
-      <c r="T31" s="596"/>
+      <c r="P31" s="608"/>
+      <c r="Q31" s="608"/>
+      <c r="R31" s="609"/>
+      <c r="S31" s="609"/>
+      <c r="T31" s="595"/>
       <c r="U31" s="583"/>
       <c r="V31" s="580"/>
       <c r="W31" s="309"/>
@@ -7944,15 +7949,15 @@
       <c r="K32" s="290"/>
       <c r="L32" s="382"/>
       <c r="M32" s="290"/>
-      <c r="N32" s="691"/>
-      <c r="O32" s="692"/>
-      <c r="P32" s="611"/>
-      <c r="Q32" s="612"/>
-      <c r="R32" s="612"/>
-      <c r="S32" s="612"/>
-      <c r="T32" s="597"/>
-      <c r="U32" s="597"/>
-      <c r="V32" s="598"/>
+      <c r="N32" s="690"/>
+      <c r="O32" s="691"/>
+      <c r="P32" s="610"/>
+      <c r="Q32" s="611"/>
+      <c r="R32" s="611"/>
+      <c r="S32" s="611"/>
+      <c r="T32" s="596"/>
+      <c r="U32" s="596"/>
+      <c r="V32" s="597"/>
       <c r="W32" s="384"/>
       <c r="X32" s="215"/>
       <c r="Y32" s="215"/>
@@ -7989,13 +7994,13 @@
       <c r="M33" s="261"/>
       <c r="N33" s="261"/>
       <c r="O33" s="404"/>
-      <c r="P33" s="613"/>
+      <c r="P33" s="612"/>
       <c r="Q33" s="577"/>
       <c r="R33" s="577"/>
       <c r="S33" s="577"/>
       <c r="T33" s="577"/>
-      <c r="U33" s="614"/>
-      <c r="V33" s="615"/>
+      <c r="U33" s="613"/>
+      <c r="V33" s="614"/>
       <c r="W33" s="30"/>
       <c r="X33" s="12"/>
       <c r="Y33" s="12"/>
@@ -8043,11 +8048,11 @@
       <c r="O34" s="266"/>
       <c r="P34" s="569"/>
       <c r="Q34" s="569"/>
-      <c r="R34" s="616"/>
-      <c r="S34" s="616"/>
+      <c r="R34" s="615"/>
+      <c r="S34" s="615"/>
       <c r="T34" s="569"/>
       <c r="U34" s="569"/>
-      <c r="V34" s="595"/>
+      <c r="V34" s="594"/>
       <c r="W34" s="37"/>
       <c r="X34" s="31"/>
       <c r="Y34" s="31"/>
@@ -8092,8 +8097,8 @@
       <c r="R35" s="572"/>
       <c r="S35" s="572"/>
       <c r="T35" s="572"/>
-      <c r="U35" s="590"/>
-      <c r="V35" s="617"/>
+      <c r="U35" s="589"/>
+      <c r="V35" s="616"/>
       <c r="W35" s="39" t="s">
         <v>67</v>
       </c>
@@ -8150,7 +8155,7 @@
       </c>
       <c r="I36" s="208"/>
       <c r="J36" s="208"/>
-      <c r="K36" s="699"/>
+      <c r="K36" s="698"/>
       <c r="L36" s="8" t="s">
         <v>67</v>
       </c>
@@ -8159,13 +8164,13 @@
       </c>
       <c r="N36" s="208"/>
       <c r="O36" s="233"/>
-      <c r="P36" s="609"/>
-      <c r="Q36" s="609"/>
+      <c r="P36" s="740"/>
+      <c r="Q36" s="608"/>
       <c r="R36" s="572"/>
       <c r="S36" s="572"/>
       <c r="T36" s="572"/>
-      <c r="U36" s="618"/>
-      <c r="V36" s="599"/>
+      <c r="U36" s="617"/>
+      <c r="V36" s="598"/>
       <c r="W36" s="39"/>
       <c r="X36" s="34"/>
       <c r="Y36" s="34"/>
@@ -8219,17 +8224,17 @@
       <c r="I37" s="344"/>
       <c r="J37" s="344"/>
       <c r="K37" s="475"/>
-      <c r="L37" s="700"/>
-      <c r="M37" s="700"/>
-      <c r="N37" s="694"/>
+      <c r="L37" s="699"/>
+      <c r="M37" s="699"/>
+      <c r="N37" s="693"/>
       <c r="O37" s="233"/>
-      <c r="P37" s="619"/>
-      <c r="Q37" s="619"/>
-      <c r="R37" s="619"/>
-      <c r="S37" s="619"/>
-      <c r="T37" s="620"/>
-      <c r="U37" s="621"/>
-      <c r="V37" s="621"/>
+      <c r="P37" s="618"/>
+      <c r="Q37" s="618"/>
+      <c r="R37" s="618"/>
+      <c r="S37" s="618"/>
+      <c r="T37" s="619"/>
+      <c r="U37" s="620"/>
+      <c r="V37" s="620"/>
       <c r="W37" s="39"/>
       <c r="X37" s="34"/>
       <c r="Y37" s="441"/>
@@ -8275,17 +8280,17 @@
       <c r="I38" s="342"/>
       <c r="J38" s="343"/>
       <c r="K38" s="437"/>
-      <c r="L38" s="693"/>
-      <c r="M38" s="693"/>
-      <c r="N38" s="694"/>
+      <c r="L38" s="692"/>
+      <c r="M38" s="692"/>
+      <c r="N38" s="693"/>
       <c r="O38" s="233"/>
       <c r="P38" s="568"/>
       <c r="Q38" s="572"/>
-      <c r="R38" s="594"/>
-      <c r="S38" s="609"/>
-      <c r="T38" s="622"/>
-      <c r="U38" s="622"/>
-      <c r="V38" s="623"/>
+      <c r="R38" s="593"/>
+      <c r="S38" s="608"/>
+      <c r="T38" s="621"/>
+      <c r="U38" s="621"/>
+      <c r="V38" s="622"/>
       <c r="W38" s="141"/>
       <c r="X38" s="95"/>
       <c r="Y38" s="460" t="s">
@@ -8333,13 +8338,13 @@
       <c r="M39" s="24"/>
       <c r="N39" s="24"/>
       <c r="O39" s="35"/>
-      <c r="P39" s="624"/>
+      <c r="P39" s="623"/>
       <c r="Q39" s="575"/>
       <c r="R39" s="575"/>
-      <c r="S39" s="625"/>
+      <c r="S39" s="624"/>
       <c r="T39" s="575"/>
       <c r="U39" s="575"/>
-      <c r="V39" s="604"/>
+      <c r="V39" s="603"/>
       <c r="W39" s="146"/>
       <c r="X39" s="323"/>
       <c r="Y39" s="323"/>
@@ -8381,7 +8386,7 @@
       <c r="S40" s="572"/>
       <c r="T40" s="572"/>
       <c r="U40" s="572"/>
-      <c r="V40" s="603"/>
+      <c r="V40" s="602"/>
       <c r="W40" s="326"/>
       <c r="X40" s="329"/>
       <c r="Y40" s="329"/>
@@ -8431,7 +8436,7 @@
       <c r="S41" s="572"/>
       <c r="T41" s="572"/>
       <c r="U41" s="569"/>
-      <c r="V41" s="595"/>
+      <c r="V41" s="594"/>
       <c r="W41" s="450" t="s">
         <v>5</v>
       </c>
@@ -8506,7 +8511,7 @@
       <c r="Z42" s="481" t="s">
         <v>68</v>
       </c>
-      <c r="AA42" s="702" t="s">
+      <c r="AA42" s="701" t="s">
         <v>68</v>
       </c>
       <c r="AB42" s="446" t="s">
@@ -8544,35 +8549,35 @@
       <c r="D43" s="195"/>
       <c r="E43" s="195"/>
       <c r="F43" s="195"/>
-      <c r="G43" s="734" t="s">
+      <c r="G43" s="726" t="s">
         <v>75</v>
       </c>
-      <c r="H43" s="735"/>
+      <c r="H43" s="727"/>
       <c r="I43" s="142"/>
       <c r="J43" s="143"/>
       <c r="K43" s="98"/>
       <c r="L43" s="144"/>
       <c r="M43" s="171"/>
-      <c r="N43" s="732" t="s">
+      <c r="N43" s="724" t="s">
         <v>120</v>
       </c>
-      <c r="O43" s="733"/>
-      <c r="P43" s="596"/>
+      <c r="O43" s="725"/>
+      <c r="P43" s="595"/>
       <c r="Q43" s="569"/>
       <c r="R43" s="569"/>
-      <c r="S43" s="596"/>
-      <c r="T43" s="616"/>
-      <c r="U43" s="730"/>
-      <c r="V43" s="731"/>
-      <c r="W43" s="736"/>
-      <c r="X43" s="737"/>
+      <c r="S43" s="595"/>
+      <c r="T43" s="615"/>
+      <c r="U43" s="722"/>
+      <c r="V43" s="723"/>
+      <c r="W43" s="728"/>
+      <c r="X43" s="729"/>
       <c r="Y43" s="89"/>
-      <c r="Z43" s="701"/>
+      <c r="Z43" s="700"/>
       <c r="AA43" s="300"/>
-      <c r="AB43" s="717"/>
-      <c r="AC43" s="718"/>
-      <c r="AD43" s="736"/>
-      <c r="AE43" s="737"/>
+      <c r="AB43" s="709"/>
+      <c r="AC43" s="710"/>
+      <c r="AD43" s="728"/>
+      <c r="AE43" s="729"/>
       <c r="AF43" s="34"/>
       <c r="AG43" s="11"/>
       <c r="AH43" s="11"/>
@@ -8599,7 +8604,7 @@
       <c r="I44" s="234" t="s">
         <v>112</v>
       </c>
-      <c r="J44" s="688"/>
+      <c r="J44" s="687"/>
       <c r="K44" s="34" t="s">
         <v>5</v>
       </c>
@@ -8609,19 +8614,19 @@
       <c r="M44" s="434" t="s">
         <v>112</v>
       </c>
-      <c r="N44" s="707" t="s">
+      <c r="N44" s="706" t="s">
         <v>70</v>
       </c>
-      <c r="O44" s="708" t="s">
+      <c r="O44" s="707" t="s">
         <v>70</v>
       </c>
       <c r="P44" s="571"/>
       <c r="Q44" s="572"/>
       <c r="R44" s="572"/>
       <c r="S44" s="571"/>
-      <c r="T44" s="626"/>
-      <c r="U44" s="627"/>
-      <c r="V44" s="628"/>
+      <c r="T44" s="625"/>
+      <c r="U44" s="626"/>
+      <c r="V44" s="627"/>
       <c r="W44" s="451" t="s">
         <v>5</v>
       </c>
@@ -8676,14 +8681,14 @@
       <c r="L45" s="427"/>
       <c r="M45" s="428"/>
       <c r="N45" s="458"/>
-      <c r="O45" s="697"/>
-      <c r="P45" s="629"/>
-      <c r="Q45" s="630"/>
-      <c r="R45" s="630"/>
-      <c r="S45" s="630"/>
-      <c r="T45" s="631"/>
-      <c r="U45" s="631"/>
-      <c r="V45" s="632"/>
+      <c r="O45" s="696"/>
+      <c r="P45" s="628"/>
+      <c r="Q45" s="629"/>
+      <c r="R45" s="629"/>
+      <c r="S45" s="629"/>
+      <c r="T45" s="630"/>
+      <c r="U45" s="630"/>
+      <c r="V45" s="631"/>
       <c r="W45" s="356"/>
       <c r="X45" s="448" t="s">
         <v>68</v>
@@ -8739,13 +8744,13 @@
       <c r="M46" s="187"/>
       <c r="N46" s="187"/>
       <c r="O46" s="231"/>
-      <c r="P46" s="633"/>
+      <c r="P46" s="632"/>
       <c r="Q46" s="577"/>
       <c r="R46" s="583"/>
       <c r="S46" s="583"/>
       <c r="T46" s="577"/>
       <c r="U46" s="577"/>
-      <c r="V46" s="634"/>
+      <c r="V46" s="633"/>
       <c r="W46" s="429"/>
       <c r="X46" s="430"/>
       <c r="Y46" s="430"/>
@@ -8792,7 +8797,7 @@
       <c r="H47" s="420" t="s">
         <v>106</v>
       </c>
-      <c r="I47" s="690"/>
+      <c r="I47" s="689"/>
       <c r="J47" s="298" t="s">
         <v>106</v>
       </c>
@@ -8807,13 +8812,13 @@
       </c>
       <c r="N47" s="185"/>
       <c r="O47" s="299"/>
-      <c r="P47" s="596"/>
-      <c r="Q47" s="616"/>
-      <c r="R47" s="635"/>
-      <c r="S47" s="635"/>
+      <c r="P47" s="595"/>
+      <c r="Q47" s="615"/>
+      <c r="R47" s="634"/>
+      <c r="S47" s="634"/>
       <c r="T47" s="569"/>
-      <c r="U47" s="636"/>
-      <c r="V47" s="637"/>
+      <c r="U47" s="635"/>
+      <c r="V47" s="636"/>
       <c r="W47" s="301"/>
       <c r="X47" s="171"/>
       <c r="Y47" s="172"/>
@@ -8866,10 +8871,10 @@
       <c r="F48" s="493" t="s">
         <v>73</v>
       </c>
-      <c r="G48" s="705" t="s">
+      <c r="G48" s="704" t="s">
         <v>70</v>
       </c>
-      <c r="H48" s="706" t="s">
+      <c r="H48" s="705" t="s">
         <v>70</v>
       </c>
       <c r="I48" s="250" t="s">
@@ -8893,11 +8898,11 @@
       <c r="O48" s="192" t="s">
         <v>89</v>
       </c>
-      <c r="P48" s="613"/>
-      <c r="Q48" s="638"/>
+      <c r="P48" s="612"/>
+      <c r="Q48" s="637"/>
       <c r="R48" s="578"/>
       <c r="S48" s="577"/>
-      <c r="T48" s="638"/>
+      <c r="T48" s="637"/>
       <c r="U48" s="578"/>
       <c r="V48" s="584"/>
       <c r="W48" s="308"/>
@@ -8940,20 +8945,20 @@
       <c r="F49" s="208"/>
       <c r="G49" s="215"/>
       <c r="H49" s="214"/>
-      <c r="I49" s="698"/>
+      <c r="I49" s="697"/>
       <c r="J49" s="215"/>
       <c r="K49" s="215"/>
       <c r="L49" s="349"/>
       <c r="M49" s="240"/>
       <c r="N49" s="215"/>
       <c r="O49" s="214"/>
-      <c r="P49" s="624"/>
+      <c r="P49" s="623"/>
       <c r="Q49" s="575"/>
       <c r="R49" s="575"/>
       <c r="S49" s="575"/>
       <c r="T49" s="583"/>
       <c r="U49" s="575"/>
-      <c r="V49" s="598"/>
+      <c r="V49" s="597"/>
       <c r="W49" s="480"/>
       <c r="X49" s="418"/>
       <c r="Y49" s="523" t="s">
@@ -9011,13 +9016,13 @@
       <c r="M50" s="175"/>
       <c r="N50" s="175"/>
       <c r="O50" s="220"/>
-      <c r="P50" s="639"/>
-      <c r="Q50" s="640"/>
-      <c r="R50" s="641"/>
-      <c r="S50" s="642"/>
-      <c r="T50" s="606"/>
-      <c r="U50" s="606"/>
-      <c r="V50" s="643"/>
+      <c r="P50" s="638"/>
+      <c r="Q50" s="639"/>
+      <c r="R50" s="640"/>
+      <c r="S50" s="641"/>
+      <c r="T50" s="605"/>
+      <c r="U50" s="605"/>
+      <c r="V50" s="642"/>
       <c r="W50" s="409"/>
       <c r="X50" s="277"/>
       <c r="Y50" s="277"/>
@@ -9075,13 +9080,13 @@
       <c r="M51" s="185"/>
       <c r="N51" s="278"/>
       <c r="O51" s="183"/>
-      <c r="P51" s="644"/>
-      <c r="Q51" s="610"/>
-      <c r="R51" s="645"/>
-      <c r="S51" s="635"/>
-      <c r="T51" s="593"/>
-      <c r="U51" s="610"/>
-      <c r="V51" s="646"/>
+      <c r="P51" s="643"/>
+      <c r="Q51" s="609"/>
+      <c r="R51" s="644"/>
+      <c r="S51" s="634"/>
+      <c r="T51" s="592"/>
+      <c r="U51" s="609"/>
+      <c r="V51" s="645"/>
       <c r="W51" s="284"/>
       <c r="X51" s="280"/>
       <c r="Y51" s="280"/>
@@ -9145,13 +9150,13 @@
       <c r="M52" s="281"/>
       <c r="N52" s="281"/>
       <c r="O52" s="282"/>
-      <c r="P52" s="647"/>
-      <c r="Q52" s="648"/>
-      <c r="R52" s="649"/>
-      <c r="S52" s="588"/>
-      <c r="T52" s="648"/>
-      <c r="U52" s="650"/>
-      <c r="V52" s="651"/>
+      <c r="P52" s="646"/>
+      <c r="Q52" s="647"/>
+      <c r="R52" s="648"/>
+      <c r="S52" s="587"/>
+      <c r="T52" s="647"/>
+      <c r="U52" s="649"/>
+      <c r="V52" s="650"/>
       <c r="W52" s="289"/>
       <c r="X52" s="391"/>
       <c r="Y52" s="391"/>
@@ -9261,13 +9266,13 @@
       <c r="M54" s="185"/>
       <c r="N54" s="185"/>
       <c r="O54" s="248"/>
-      <c r="P54" s="652"/>
-      <c r="Q54" s="652"/>
+      <c r="P54" s="651"/>
+      <c r="Q54" s="651"/>
       <c r="R54" s="569"/>
       <c r="S54" s="569"/>
       <c r="T54" s="569"/>
       <c r="U54" s="569"/>
-      <c r="V54" s="595"/>
+      <c r="V54" s="594"/>
       <c r="W54" s="288"/>
       <c r="X54" s="263"/>
       <c r="Y54" s="265"/>
@@ -9330,13 +9335,13 @@
       <c r="M55" s="215"/>
       <c r="N55" s="215"/>
       <c r="O55" s="214"/>
-      <c r="P55" s="611"/>
-      <c r="Q55" s="612"/>
+      <c r="P55" s="610"/>
+      <c r="Q55" s="611"/>
       <c r="R55" s="575"/>
       <c r="S55" s="575"/>
       <c r="T55" s="575"/>
       <c r="U55" s="575"/>
-      <c r="V55" s="598"/>
+      <c r="V55" s="597"/>
       <c r="W55" s="289"/>
       <c r="X55" s="290"/>
       <c r="Y55" s="290"/>
@@ -9395,13 +9400,13 @@
       <c r="O56" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="P56" s="653"/>
+      <c r="P56" s="652"/>
       <c r="Q56" s="584"/>
       <c r="R56" s="569"/>
-      <c r="S56" s="654"/>
-      <c r="T56" s="655"/>
-      <c r="U56" s="655"/>
-      <c r="V56" s="595"/>
+      <c r="S56" s="653"/>
+      <c r="T56" s="654"/>
+      <c r="U56" s="654"/>
+      <c r="V56" s="594"/>
       <c r="W56" s="67"/>
       <c r="X56" s="41"/>
       <c r="Y56" s="31"/>
@@ -9437,7 +9442,7 @@
       <c r="E57" s="54">
         <v>48</v>
       </c>
-      <c r="F57" s="703" t="s">
+      <c r="F57" s="702" t="s">
         <v>72</v>
       </c>
       <c r="G57" s="63" t="s">
@@ -9468,12 +9473,12 @@
         <v>90</v>
       </c>
       <c r="P57" s="568"/>
-      <c r="Q57" s="654"/>
+      <c r="Q57" s="653"/>
       <c r="R57" s="569"/>
-      <c r="S57" s="654"/>
-      <c r="T57" s="656"/>
+      <c r="S57" s="653"/>
+      <c r="T57" s="655"/>
       <c r="U57" s="569"/>
-      <c r="V57" s="655"/>
+      <c r="V57" s="654"/>
       <c r="W57" s="37" t="s">
         <v>73</v>
       </c>
@@ -9555,13 +9560,13 @@
         <v>90</v>
       </c>
       <c r="O58" s="28"/>
-      <c r="P58" s="657"/>
-      <c r="Q58" s="658"/>
-      <c r="R58" s="658"/>
-      <c r="S58" s="659"/>
-      <c r="T58" s="658"/>
-      <c r="U58" s="658"/>
-      <c r="V58" s="659"/>
+      <c r="P58" s="656"/>
+      <c r="Q58" s="657"/>
+      <c r="R58" s="657"/>
+      <c r="S58" s="658"/>
+      <c r="T58" s="657"/>
+      <c r="U58" s="657"/>
+      <c r="V58" s="658"/>
       <c r="W58" s="47"/>
       <c r="X58" s="40"/>
       <c r="Y58" s="40" t="s">
@@ -9609,13 +9614,13 @@
       <c r="M59" s="41"/>
       <c r="N59" s="41"/>
       <c r="O59" s="28"/>
-      <c r="P59" s="657"/>
-      <c r="Q59" s="658"/>
-      <c r="R59" s="657"/>
-      <c r="S59" s="659"/>
-      <c r="T59" s="658"/>
-      <c r="U59" s="658"/>
-      <c r="V59" s="659"/>
+      <c r="P59" s="656"/>
+      <c r="Q59" s="657"/>
+      <c r="R59" s="656"/>
+      <c r="S59" s="658"/>
+      <c r="T59" s="657"/>
+      <c r="U59" s="657"/>
+      <c r="V59" s="658"/>
       <c r="W59" s="47"/>
       <c r="X59" s="40"/>
       <c r="Y59" s="40"/>
@@ -9647,14 +9652,14 @@
       <c r="L60" s="68"/>
       <c r="M60" s="157"/>
       <c r="N60" s="524"/>
-      <c r="O60" s="709"/>
-      <c r="P60" s="660"/>
-      <c r="Q60" s="661"/>
-      <c r="R60" s="657"/>
-      <c r="S60" s="659"/>
+      <c r="O60" s="708"/>
+      <c r="P60" s="659"/>
+      <c r="Q60" s="660"/>
+      <c r="R60" s="656"/>
+      <c r="S60" s="658"/>
       <c r="T60" s="578"/>
-      <c r="U60" s="661"/>
-      <c r="V60" s="662"/>
+      <c r="U60" s="660"/>
+      <c r="V60" s="661"/>
       <c r="W60" s="45"/>
       <c r="X60" s="40"/>
       <c r="Y60" s="170"/>
@@ -9700,13 +9705,13 @@
       </c>
       <c r="N61" s="96"/>
       <c r="O61" s="560"/>
-      <c r="P61" s="663"/>
-      <c r="Q61" s="661"/>
-      <c r="R61" s="660"/>
-      <c r="S61" s="658"/>
-      <c r="T61" s="657"/>
-      <c r="U61" s="658"/>
-      <c r="V61" s="664"/>
+      <c r="P61" s="662"/>
+      <c r="Q61" s="660"/>
+      <c r="R61" s="659"/>
+      <c r="S61" s="657"/>
+      <c r="T61" s="656"/>
+      <c r="U61" s="657"/>
+      <c r="V61" s="663"/>
       <c r="W61" s="156"/>
       <c r="X61" s="156"/>
       <c r="Y61" s="156" t="s">
@@ -9765,13 +9770,13 @@
       <c r="M62" s="40"/>
       <c r="N62" s="169"/>
       <c r="O62" s="433"/>
-      <c r="P62" s="665"/>
-      <c r="Q62" s="658"/>
-      <c r="R62" s="657"/>
-      <c r="S62" s="666"/>
-      <c r="T62" s="658"/>
-      <c r="U62" s="658"/>
-      <c r="V62" s="664"/>
+      <c r="P62" s="664"/>
+      <c r="Q62" s="657"/>
+      <c r="R62" s="656"/>
+      <c r="S62" s="665"/>
+      <c r="T62" s="657"/>
+      <c r="U62" s="657"/>
+      <c r="V62" s="663"/>
       <c r="W62" s="53"/>
       <c r="X62" s="54"/>
       <c r="Y62" s="99"/>
@@ -9824,13 +9829,13 @@
       <c r="M63" s="40"/>
       <c r="N63" s="40"/>
       <c r="O63" s="46"/>
-      <c r="P63" s="665"/>
-      <c r="Q63" s="658"/>
-      <c r="R63" s="657"/>
-      <c r="S63" s="667"/>
-      <c r="T63" s="658"/>
-      <c r="U63" s="658"/>
-      <c r="V63" s="664"/>
+      <c r="P63" s="664"/>
+      <c r="Q63" s="657"/>
+      <c r="R63" s="656"/>
+      <c r="S63" s="666"/>
+      <c r="T63" s="657"/>
+      <c r="U63" s="657"/>
+      <c r="V63" s="663"/>
       <c r="W63" s="53"/>
       <c r="X63" s="54"/>
       <c r="Y63" s="99"/>
@@ -9870,17 +9875,17 @@
       <c r="I64" s="340"/>
       <c r="J64" s="156"/>
       <c r="K64" s="156"/>
-      <c r="L64" s="695"/>
-      <c r="M64" s="695"/>
-      <c r="N64" s="696"/>
+      <c r="L64" s="694"/>
+      <c r="M64" s="694"/>
+      <c r="N64" s="695"/>
       <c r="O64" s="156"/>
-      <c r="P64" s="665"/>
-      <c r="Q64" s="658"/>
-      <c r="R64" s="660"/>
-      <c r="S64" s="668"/>
-      <c r="T64" s="669"/>
-      <c r="U64" s="610"/>
-      <c r="V64" s="670"/>
+      <c r="P64" s="664"/>
+      <c r="Q64" s="657"/>
+      <c r="R64" s="659"/>
+      <c r="S64" s="667"/>
+      <c r="T64" s="668"/>
+      <c r="U64" s="609"/>
+      <c r="V64" s="669"/>
       <c r="W64" s="53"/>
       <c r="X64" s="54"/>
       <c r="Y64" s="156"/>
@@ -9938,13 +9943,13 @@
         <v>84</v>
       </c>
       <c r="O65" s="166"/>
-      <c r="P65" s="671"/>
-      <c r="Q65" s="672"/>
-      <c r="R65" s="672"/>
-      <c r="S65" s="661"/>
-      <c r="T65" s="610"/>
-      <c r="U65" s="610"/>
-      <c r="V65" s="673"/>
+      <c r="P65" s="670"/>
+      <c r="Q65" s="671"/>
+      <c r="R65" s="671"/>
+      <c r="S65" s="660"/>
+      <c r="T65" s="609"/>
+      <c r="U65" s="609"/>
+      <c r="V65" s="672"/>
       <c r="W65" s="168" t="s">
         <v>84</v>
       </c>
@@ -10004,13 +10009,13 @@
         <v>84</v>
       </c>
       <c r="O66" s="147"/>
-      <c r="P66" s="674"/>
-      <c r="Q66" s="675"/>
-      <c r="R66" s="676"/>
-      <c r="S66" s="676"/>
-      <c r="T66" s="594"/>
-      <c r="U66" s="594"/>
-      <c r="V66" s="677"/>
+      <c r="P66" s="673"/>
+      <c r="Q66" s="674"/>
+      <c r="R66" s="675"/>
+      <c r="S66" s="675"/>
+      <c r="T66" s="593"/>
+      <c r="U66" s="593"/>
+      <c r="V66" s="676"/>
       <c r="W66" s="47" t="s">
         <v>84</v>
       </c>
@@ -10088,13 +10093,13 @@
         <v>84</v>
       </c>
       <c r="O67" s="119"/>
-      <c r="P67" s="678"/>
-      <c r="Q67" s="594"/>
-      <c r="R67" s="679"/>
-      <c r="S67" s="680"/>
-      <c r="T67" s="681"/>
-      <c r="U67" s="681"/>
-      <c r="V67" s="682"/>
+      <c r="P67" s="677"/>
+      <c r="Q67" s="593"/>
+      <c r="R67" s="678"/>
+      <c r="S67" s="679"/>
+      <c r="T67" s="680"/>
+      <c r="U67" s="680"/>
+      <c r="V67" s="681"/>
       <c r="W67" s="120" t="s">
         <v>84</v>
       </c>
@@ -10150,13 +10155,13 @@
       <c r="M68" s="114"/>
       <c r="N68" s="114"/>
       <c r="O68" s="114"/>
-      <c r="P68" s="683"/>
-      <c r="Q68" s="684"/>
-      <c r="R68" s="683"/>
-      <c r="S68" s="683"/>
-      <c r="T68" s="684"/>
-      <c r="U68" s="684"/>
-      <c r="V68" s="684"/>
+      <c r="P68" s="682"/>
+      <c r="Q68" s="683"/>
+      <c r="R68" s="682"/>
+      <c r="S68" s="682"/>
+      <c r="T68" s="683"/>
+      <c r="U68" s="683"/>
+      <c r="V68" s="683"/>
       <c r="W68" s="114"/>
       <c r="X68" s="49"/>
       <c r="Y68" s="114"/>
@@ -10178,49 +10183,49 @@
       <c r="A69" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B69" s="710" t="s">
+      <c r="B69" s="730" t="s">
         <v>42</v>
       </c>
-      <c r="C69" s="711"/>
-      <c r="D69" s="711"/>
-      <c r="E69" s="711"/>
-      <c r="F69" s="711"/>
-      <c r="G69" s="711"/>
-      <c r="H69" s="713"/>
-      <c r="I69" s="710" t="s">
+      <c r="C69" s="731"/>
+      <c r="D69" s="731"/>
+      <c r="E69" s="731"/>
+      <c r="F69" s="731"/>
+      <c r="G69" s="731"/>
+      <c r="H69" s="733"/>
+      <c r="I69" s="730" t="s">
         <v>105</v>
       </c>
-      <c r="J69" s="711"/>
-      <c r="K69" s="711"/>
-      <c r="L69" s="711"/>
-      <c r="M69" s="711"/>
-      <c r="N69" s="711"/>
-      <c r="O69" s="713"/>
-      <c r="P69" s="714"/>
-      <c r="Q69" s="715"/>
-      <c r="R69" s="715"/>
-      <c r="S69" s="715"/>
-      <c r="T69" s="715"/>
-      <c r="U69" s="715"/>
-      <c r="V69" s="716"/>
-      <c r="W69" s="710" t="s">
+      <c r="J69" s="731"/>
+      <c r="K69" s="731"/>
+      <c r="L69" s="731"/>
+      <c r="M69" s="731"/>
+      <c r="N69" s="731"/>
+      <c r="O69" s="733"/>
+      <c r="P69" s="734"/>
+      <c r="Q69" s="735"/>
+      <c r="R69" s="735"/>
+      <c r="S69" s="735"/>
+      <c r="T69" s="735"/>
+      <c r="U69" s="735"/>
+      <c r="V69" s="736"/>
+      <c r="W69" s="730" t="s">
         <v>88</v>
       </c>
-      <c r="X69" s="711"/>
-      <c r="Y69" s="711"/>
-      <c r="Z69" s="711"/>
-      <c r="AA69" s="711"/>
-      <c r="AB69" s="711"/>
-      <c r="AC69" s="713"/>
-      <c r="AD69" s="710" t="s">
+      <c r="X69" s="731"/>
+      <c r="Y69" s="731"/>
+      <c r="Z69" s="731"/>
+      <c r="AA69" s="731"/>
+      <c r="AB69" s="731"/>
+      <c r="AC69" s="733"/>
+      <c r="AD69" s="730" t="s">
         <v>23</v>
       </c>
-      <c r="AE69" s="711"/>
-      <c r="AF69" s="711"/>
-      <c r="AG69" s="711"/>
-      <c r="AH69" s="711"/>
-      <c r="AI69" s="711"/>
-      <c r="AJ69" s="712"/>
+      <c r="AE69" s="731"/>
+      <c r="AF69" s="731"/>
+      <c r="AG69" s="731"/>
+      <c r="AH69" s="731"/>
+      <c r="AI69" s="731"/>
+      <c r="AJ69" s="732"/>
       <c r="AK69" s="1"/>
       <c r="AL69" s="1"/>
     </row>
@@ -10507,6 +10512,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="AD69:AJ69"/>
+    <mergeCell ref="W69:AC69"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="I69:O69"/>
+    <mergeCell ref="P69:V69"/>
     <mergeCell ref="AB43:AC43"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="B2:H2"/>
@@ -10520,11 +10530,6 @@
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="AD43:AE43"/>
     <mergeCell ref="W43:X43"/>
-    <mergeCell ref="AD69:AJ69"/>
-    <mergeCell ref="W69:AC69"/>
-    <mergeCell ref="B69:H69"/>
-    <mergeCell ref="I69:O69"/>
-    <mergeCell ref="P69:V69"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.55118110236220474" right="0.35433070866141736" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -10549,11 +10554,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="18.75">
-      <c r="B1" s="738" t="s">
+      <c r="B1" s="737" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="738"/>
-      <c r="D1" s="738"/>
+      <c r="C1" s="737"/>
+      <c r="D1" s="737"/>
     </row>
     <row r="2" spans="2:6" ht="18.75" thickBot="1">
       <c r="B2" s="124"/>
@@ -10792,25 +10797,25 @@
       <c r="D36" s="124"/>
     </row>
     <row r="37" spans="2:4" ht="18">
-      <c r="B37" s="739" t="s">
+      <c r="B37" s="738" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="739"/>
-      <c r="D37" s="739"/>
+      <c r="C37" s="738"/>
+      <c r="D37" s="738"/>
     </row>
     <row r="38" spans="2:4" ht="18">
-      <c r="B38" s="739" t="s">
+      <c r="B38" s="738" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="739"/>
-      <c r="D38" s="739"/>
+      <c r="C38" s="738"/>
+      <c r="D38" s="738"/>
     </row>
     <row r="39" spans="2:4" ht="18">
-      <c r="B39" s="739" t="s">
+      <c r="B39" s="738" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="739"/>
-      <c r="D39" s="739"/>
+      <c r="C39" s="738"/>
+      <c r="D39" s="738"/>
     </row>
   </sheetData>
   <mergeCells count="4">
